--- a/data/brief/briefP/Parents/b_4.0-5.11_gen.xlsx
+++ b/data/brief/briefP/Parents/b_4.0-5.11_gen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Daniel\My_projects\coding\Diagnostic_test\Diascore-backend\data\breif\breifP\Parents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\daniel\Documents\Daniel\My_projects\coding\Diagnostic_test\Diascore-backend\data\brief\briefP\Parents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CC75E-1273-43E8-9328-0DDBC737142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D4729B-8950-4E19-B92B-E48B064048E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="7845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>T score</t>
+    <t>raw score</t>
   </si>
   <si>
-    <t>raw score</t>
+    <t>T score</t>
   </si>
 </sst>
 </file>
@@ -405,17 +405,17 @@
   <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
